--- a/public/Excel/19siswa.xlsx
+++ b/public/Excel/19siswa.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05789ACB-C3E5-4DE1-9ED9-CA3953094CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell XPS P54G\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C8130-0D76-41D9-B99A-246388AC57D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>nama_lengkap</t>
   </si>
@@ -45,27 +37,15 @@
     <t>Muhammad Nor Kholit</t>
   </si>
   <si>
-    <t>Laki-Laki</t>
-  </si>
-  <si>
     <t>XII</t>
   </si>
   <si>
     <t>Moch Henky Dwi Septian</t>
   </si>
   <si>
-    <t>Perempuan</t>
-  </si>
-  <si>
-    <t>XI</t>
-  </si>
-  <si>
     <t>Katoh Abi Manyu Saputra</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>Yanuar Antama Saia</t>
   </si>
   <si>
@@ -85,13 +65,28 @@
   </si>
   <si>
     <t>Yanto</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>no_kelas</t>
+  </si>
+  <si>
+    <t>jurusan</t>
+  </si>
+  <si>
+    <t>AKUTANSI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,18 +431,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +459,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -469,136 +474,196 @@
         <v>1598745632</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
       </c>
       <c r="B3">
         <v>9852364178</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>8546987412</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>7854123695</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>4582369175</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>7854693215</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>15</v>
       </c>
       <c r="B8">
         <v>8546239715</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>7845693215</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>9513578264</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>7894561235</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
